--- a/data/user_data_invalid_output.xlsx
+++ b/data/user_data_invalid_output.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Testcase</t>
   </si>
@@ -61,12 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>nguyen.thi.thu.huong@framgia.com</t>
-  </si>
-  <si>
-    <t>nguyen.thi.thu.huong@framgia</t>
   </si>
   <si>
     <t>Aa@123456</t>
@@ -435,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -479,35 +473,9 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="true">
-      <c r="A4" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" t="b" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="true">
-      <c r="A5" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="D5" t="b" s="1">
         <v>1</v>
       </c>
     </row>
